--- a/result/gr25_07_simulated/details.xlsx
+++ b/result/gr25_07_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2329387664794922</v>
+        <v>0.2159323692321777</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>116.2560846907927</v>
+        <v>116.7257070795258</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003355080026337168</v>
+        <v>0.003403769951593227</v>
       </c>
       <c r="G2" t="n">
-        <v>0.003050777399115383</v>
+        <v>0.003403769951593227</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002861850083855459</v>
+        <v>0.002717440152790865</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002861850083855459</v>
+        <v>0.002717440152790865</v>
       </c>
       <c r="J2" t="n">
-        <v>0.002524747248446632</v>
+        <v>0.002717440152790865</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002524747248446632</v>
+        <v>0.002717440152790865</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00246031017930303</v>
+        <v>0.002652220947650199</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00246031017930303</v>
+        <v>0.002416901744621881</v>
       </c>
       <c r="N2" t="n">
-        <v>0.00246031017930303</v>
+        <v>0.002394072392101993</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002442643597621842</v>
+        <v>0.002394072392101993</v>
       </c>
       <c r="P2" t="n">
-        <v>0.002442643597621842</v>
+        <v>0.002394072392101993</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.002344313781136061</v>
+        <v>0.002394072392101993</v>
       </c>
       <c r="R2" t="n">
-        <v>0.002312089676352558</v>
+        <v>0.002367892145530188</v>
       </c>
       <c r="S2" t="n">
-        <v>0.002312089676352558</v>
+        <v>0.002367892145530188</v>
       </c>
       <c r="T2" t="n">
-        <v>0.002312089676352558</v>
+        <v>0.002326878983193323</v>
       </c>
       <c r="U2" t="n">
-        <v>0.002312089676352558</v>
+        <v>0.002317315338941076</v>
       </c>
       <c r="V2" t="n">
-        <v>0.002312089676352558</v>
+        <v>0.002315901694191443</v>
       </c>
       <c r="W2" t="n">
-        <v>0.002292957508459835</v>
+        <v>0.0023042798363505</v>
       </c>
       <c r="X2" t="n">
-        <v>0.002287410941161686</v>
+        <v>0.002294312593934464</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.002266200481302002</v>
+        <v>0.002275354913830912</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2420375347137451</v>
+        <v>0.2181625366210938</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>124.9612636788424</v>
+        <v>116.8324859888871</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00344275582509091</v>
+        <v>0.003400105573240949</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003074730425084451</v>
+        <v>0.003124351940380178</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003015687788273189</v>
+        <v>0.002808730397142713</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002918761849522937</v>
+        <v>0.002808730397142713</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00289466829030221</v>
+        <v>0.002808730397142713</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002752871915401509</v>
+        <v>0.002808730397142713</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002752871915401509</v>
+        <v>0.002808730397142713</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002747866681271531</v>
+        <v>0.002808730397142713</v>
       </c>
       <c r="N3" t="n">
-        <v>0.002651212112144804</v>
+        <v>0.002563003279799241</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00265109609724949</v>
+        <v>0.002539884647674264</v>
       </c>
       <c r="P3" t="n">
-        <v>0.002631849298839291</v>
+        <v>0.002539884647674264</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.002609400310140689</v>
+        <v>0.002536549760987125</v>
       </c>
       <c r="R3" t="n">
-        <v>0.002576914199295206</v>
+        <v>0.002433149990425824</v>
       </c>
       <c r="S3" t="n">
-        <v>0.002576914199295206</v>
+        <v>0.002391001170361593</v>
       </c>
       <c r="T3" t="n">
-        <v>0.002576914199295206</v>
+        <v>0.002355483154031241</v>
       </c>
       <c r="U3" t="n">
-        <v>0.002547391980161373</v>
+        <v>0.002299806719234361</v>
       </c>
       <c r="V3" t="n">
-        <v>0.002506393423271319</v>
+        <v>0.002286380550403617</v>
       </c>
       <c r="W3" t="n">
-        <v>0.002476275332358775</v>
+        <v>0.002286380550403617</v>
       </c>
       <c r="X3" t="n">
-        <v>0.002460394473097397</v>
+        <v>0.002286380550403617</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.002435892079509598</v>
+        <v>0.00227743637405238</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2571721076965332</v>
+        <v>0.187507152557373</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>121.5155304588479</v>
+        <v>127.1094564371542</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003472740351464192</v>
+        <v>0.003301287609747925</v>
       </c>
       <c r="G4" t="n">
-        <v>0.003011447014264066</v>
+        <v>0.002939996241491163</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002878958489504174</v>
+        <v>0.002831265394267857</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002726571887549326</v>
+        <v>0.002831265394267857</v>
       </c>
       <c r="J4" t="n">
-        <v>0.002726571887549326</v>
+        <v>0.002831265394267857</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002726571887549326</v>
+        <v>0.002831265394267857</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002620084333584547</v>
+        <v>0.002831265394267857</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0025325069042187</v>
+        <v>0.002753111770238617</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0025325069042187</v>
+        <v>0.002753111770238617</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0025325069042187</v>
+        <v>0.002596065274188398</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0025325069042187</v>
+        <v>0.002596065274188398</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0025325069042187</v>
+        <v>0.002596065274188398</v>
       </c>
       <c r="R4" t="n">
-        <v>0.002431975779391261</v>
+        <v>0.002596065274188398</v>
       </c>
       <c r="S4" t="n">
-        <v>0.002431975779391261</v>
+        <v>0.002596065274188398</v>
       </c>
       <c r="T4" t="n">
-        <v>0.002431975779391261</v>
+        <v>0.002596065274188398</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002431975779391261</v>
+        <v>0.002552064526612757</v>
       </c>
       <c r="V4" t="n">
-        <v>0.002431975779391261</v>
+        <v>0.002552064526612757</v>
       </c>
       <c r="W4" t="n">
-        <v>0.002417077903272455</v>
+        <v>0.00251247124298552</v>
       </c>
       <c r="X4" t="n">
-        <v>0.002400430873214156</v>
+        <v>0.002477767182010803</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.002368723790620817</v>
+        <v>0.002477767182010803</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2442011833190918</v>
+        <v>0.253443717956543</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>120.3899439024171</v>
+        <v>122.8535501446277</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003390649965004397</v>
+        <v>0.003522423937944115</v>
       </c>
       <c r="G5" t="n">
-        <v>0.003049816188142276</v>
+        <v>0.00284824391404815</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003049816188142276</v>
+        <v>0.00284824391404815</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003005000963628057</v>
+        <v>0.00284824391404815</v>
       </c>
       <c r="J5" t="n">
-        <v>0.002808140563475747</v>
+        <v>0.00283408032370466</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002722000023086206</v>
+        <v>0.002833473895416832</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002722000023086206</v>
+        <v>0.002650296359011921</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002722000023086206</v>
+        <v>0.002650296359011921</v>
       </c>
       <c r="N5" t="n">
-        <v>0.002722000023086206</v>
+        <v>0.002650296359011921</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002582944213199826</v>
+        <v>0.002465197328437512</v>
       </c>
       <c r="P5" t="n">
-        <v>0.002566244885796191</v>
+        <v>0.002465197328437512</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.002566244885796191</v>
+        <v>0.002465197328437512</v>
       </c>
       <c r="R5" t="n">
-        <v>0.002566244885796191</v>
+        <v>0.002465197328437512</v>
       </c>
       <c r="S5" t="n">
-        <v>0.002481183178811212</v>
+        <v>0.002465197328437512</v>
       </c>
       <c r="T5" t="n">
-        <v>0.002460103392330419</v>
+        <v>0.002465197328437512</v>
       </c>
       <c r="U5" t="n">
-        <v>0.002434519987209976</v>
+        <v>0.002465197328437512</v>
       </c>
       <c r="V5" t="n">
-        <v>0.002432603225106912</v>
+        <v>0.002465197328437512</v>
       </c>
       <c r="W5" t="n">
-        <v>0.002399430161574599</v>
+        <v>0.002407104814015487</v>
       </c>
       <c r="X5" t="n">
-        <v>0.002364314337319405</v>
+        <v>0.002407104814015487</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.00234678253221086</v>
+        <v>0.002394806045704242</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2553153038024902</v>
+        <v>0.3339650630950928</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>121.7438519863281</v>
+        <v>121.7811056707287</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003514888025286755</v>
+        <v>0.00335144582154993</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002826617397130315</v>
+        <v>0.003095131316536265</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002808691532833927</v>
+        <v>0.003095131316536265</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002808691532833927</v>
+        <v>0.002994597531247123</v>
       </c>
       <c r="J6" t="n">
-        <v>0.002807425435945248</v>
+        <v>0.002841638606137122</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002796410002022269</v>
+        <v>0.002841638606137122</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002796410002022269</v>
+        <v>0.002643742622574181</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0026870425811099</v>
+        <v>0.002643742622574181</v>
       </c>
       <c r="N6" t="n">
-        <v>0.002523355288426864</v>
+        <v>0.002643742622574181</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002519061246671236</v>
+        <v>0.002643742622574181</v>
       </c>
       <c r="P6" t="n">
-        <v>0.002519061246671236</v>
+        <v>0.002626676172517284</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.002519061246671236</v>
+        <v>0.002527187489995519</v>
       </c>
       <c r="R6" t="n">
-        <v>0.002506793681939626</v>
+        <v>0.002527187489995519</v>
       </c>
       <c r="S6" t="n">
-        <v>0.002472055685076541</v>
+        <v>0.002527187489995519</v>
       </c>
       <c r="T6" t="n">
-        <v>0.002463434064855738</v>
+        <v>0.002496954951870062</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002441262570195866</v>
+        <v>0.00241620036380106</v>
       </c>
       <c r="V6" t="n">
-        <v>0.002441262570195866</v>
+        <v>0.002403964811074245</v>
       </c>
       <c r="W6" t="n">
-        <v>0.002400966611756437</v>
+        <v>0.002403964811074245</v>
       </c>
       <c r="X6" t="n">
-        <v>0.002392201705243584</v>
+        <v>0.002394952530739048</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.002373174502657467</v>
+        <v>0.002373900695335842</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2430121898651123</v>
+        <v>0.3253564834594727</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>118.4568852032826</v>
+        <v>116.9860913417488</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003522423937944115</v>
+        <v>0.003420623059458673</v>
       </c>
       <c r="G7" t="n">
-        <v>0.003110205567576393</v>
+        <v>0.002960281829183094</v>
       </c>
       <c r="H7" t="n">
-        <v>0.003077815991050884</v>
+        <v>0.002960281829183094</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002792192519608571</v>
+        <v>0.002891106893836556</v>
       </c>
       <c r="J7" t="n">
-        <v>0.002780508495240803</v>
+        <v>0.002739501626383855</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002780508495240803</v>
+        <v>0.002635084850179494</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002597097665126539</v>
+        <v>0.002635084850179494</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002597097665126539</v>
+        <v>0.002635084850179494</v>
       </c>
       <c r="N7" t="n">
-        <v>0.002530637024804014</v>
+        <v>0.00258919448397924</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002530637024804014</v>
+        <v>0.00258919448397924</v>
       </c>
       <c r="P7" t="n">
-        <v>0.002530637024804014</v>
+        <v>0.002458844329240025</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.002495453030705601</v>
+        <v>0.002458844329240025</v>
       </c>
       <c r="R7" t="n">
-        <v>0.002478190311850735</v>
+        <v>0.002417267183923206</v>
       </c>
       <c r="S7" t="n">
-        <v>0.002423504521444187</v>
+        <v>0.002417267183923206</v>
       </c>
       <c r="T7" t="n">
-        <v>0.002406192084191489</v>
+        <v>0.002370940501961818</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002406192084191489</v>
+        <v>0.002370940501961818</v>
       </c>
       <c r="V7" t="n">
-        <v>0.00236950636523413</v>
+        <v>0.002334372705954486</v>
       </c>
       <c r="W7" t="n">
-        <v>0.002327816159405083</v>
+        <v>0.002334372705954486</v>
       </c>
       <c r="X7" t="n">
-        <v>0.002316542545955797</v>
+        <v>0.002309911127221282</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.002309101076087379</v>
+        <v>0.002280430630443445</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2209970951080322</v>
+        <v>0.2296862602233887</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>121.5927970434277</v>
+        <v>118.1248554165995</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00351372068840494</v>
+        <v>0.003383280333885364</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00310206995340617</v>
+        <v>0.003050988193930496</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002690640196841462</v>
+        <v>0.002695292200116728</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002690640196841462</v>
+        <v>0.002695292200116728</v>
       </c>
       <c r="J8" t="n">
-        <v>0.002690640196841462</v>
+        <v>0.002695292200116728</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002690640196841462</v>
+        <v>0.002695292200116728</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002690640196841462</v>
+        <v>0.002571740267029343</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002578862942887728</v>
+        <v>0.002571740267029343</v>
       </c>
       <c r="N8" t="n">
-        <v>0.002578862942887728</v>
+        <v>0.002565953775809897</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002578862942887728</v>
+        <v>0.002565953775809897</v>
       </c>
       <c r="P8" t="n">
-        <v>0.002578862942887728</v>
+        <v>0.002496029561069249</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.002498912886789128</v>
+        <v>0.002496029561069249</v>
       </c>
       <c r="R8" t="n">
-        <v>0.002476995062844903</v>
+        <v>0.002410316585637506</v>
       </c>
       <c r="S8" t="n">
-        <v>0.002476995062844903</v>
+        <v>0.002410316585637506</v>
       </c>
       <c r="T8" t="n">
-        <v>0.002476995062844903</v>
+        <v>0.002395182235641097</v>
       </c>
       <c r="U8" t="n">
-        <v>0.002442915867528749</v>
+        <v>0.002358396293455417</v>
       </c>
       <c r="V8" t="n">
-        <v>0.002442712286640307</v>
+        <v>0.002345746883884221</v>
       </c>
       <c r="W8" t="n">
-        <v>0.00240288784441543</v>
+        <v>0.002307812219402272</v>
       </c>
       <c r="X8" t="n">
-        <v>0.002384101502423035</v>
+        <v>0.002307074446373617</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.002370229961860189</v>
+        <v>0.002302628760557495</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2204337120056152</v>
+        <v>0.2472198009490967</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>122.2053643211493</v>
+        <v>124.5414572782702</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00332796643382285</v>
+        <v>0.003521271639873229</v>
       </c>
       <c r="G9" t="n">
-        <v>0.003195120744683549</v>
+        <v>0.003161100990172108</v>
       </c>
       <c r="H9" t="n">
-        <v>0.002839381169167318</v>
+        <v>0.00301289634147385</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002839381169167318</v>
+        <v>0.00301289634147385</v>
       </c>
       <c r="J9" t="n">
-        <v>0.002766707945864016</v>
+        <v>0.00301289634147385</v>
       </c>
       <c r="K9" t="n">
-        <v>0.002668358306992482</v>
+        <v>0.002870590622596173</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002659005928608184</v>
+        <v>0.002870590622596173</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002659005928608184</v>
+        <v>0.002870590622596173</v>
       </c>
       <c r="N9" t="n">
-        <v>0.00263234306204429</v>
+        <v>0.002870590622596173</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002513454628176802</v>
+        <v>0.002685979719631523</v>
       </c>
       <c r="P9" t="n">
-        <v>0.002513454628176802</v>
+        <v>0.002685979719631523</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.002513454628176802</v>
+        <v>0.002685979719631523</v>
       </c>
       <c r="R9" t="n">
-        <v>0.002513454628176802</v>
+        <v>0.002598742843779938</v>
       </c>
       <c r="S9" t="n">
-        <v>0.002513454628176802</v>
+        <v>0.002575741926290457</v>
       </c>
       <c r="T9" t="n">
-        <v>0.002509161348526676</v>
+        <v>0.002540515389460481</v>
       </c>
       <c r="U9" t="n">
-        <v>0.002492513173759516</v>
+        <v>0.002540515389460481</v>
       </c>
       <c r="V9" t="n">
-        <v>0.002446700824983738</v>
+        <v>0.002518737014139496</v>
       </c>
       <c r="W9" t="n">
-        <v>0.002440650689259164</v>
+        <v>0.002457657693245784</v>
       </c>
       <c r="X9" t="n">
-        <v>0.002407329090981247</v>
+        <v>0.002427708718874662</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.002382170844466848</v>
+        <v>0.002427708718874662</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2072203159332275</v>
+        <v>0.1927549839019775</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>114.8782160877781</v>
+        <v>116.8764947291183</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003507907110945603</v>
+        <v>0.003454616380507159</v>
       </c>
       <c r="G10" t="n">
-        <v>0.003237832794335335</v>
+        <v>0.002981128491030768</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002892454704819682</v>
+        <v>0.002616598422188515</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002715469135072192</v>
+        <v>0.002616598422188515</v>
       </c>
       <c r="J10" t="n">
-        <v>0.002715469135072192</v>
+        <v>0.002616598422188515</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002715469135072192</v>
+        <v>0.002616598422188515</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002715469135072192</v>
+        <v>0.002616598422188515</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002567022973975287</v>
+        <v>0.002616598422188515</v>
       </c>
       <c r="N10" t="n">
-        <v>0.002516417457495743</v>
+        <v>0.002616598422188515</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002516417457495743</v>
+        <v>0.002540017864780841</v>
       </c>
       <c r="P10" t="n">
-        <v>0.002408174953459848</v>
+        <v>0.002540017864780841</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.002399595128863864</v>
+        <v>0.002540017864780841</v>
       </c>
       <c r="R10" t="n">
-        <v>0.002399595128863864</v>
+        <v>0.002506209792586036</v>
       </c>
       <c r="S10" t="n">
-        <v>0.002387858862652134</v>
+        <v>0.002404686803845011</v>
       </c>
       <c r="T10" t="n">
-        <v>0.002302300186990062</v>
+        <v>0.002403499027412209</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002297299020721223</v>
+        <v>0.002389121389009779</v>
       </c>
       <c r="V10" t="n">
-        <v>0.002297299020721223</v>
+        <v>0.002361236115734019</v>
       </c>
       <c r="W10" t="n">
-        <v>0.002240986864716792</v>
+        <v>0.002299954768663382</v>
       </c>
       <c r="X10" t="n">
-        <v>0.002240986864716792</v>
+        <v>0.002284529951669286</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.002239341444206201</v>
+        <v>0.002278294244232326</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2232346534729004</v>
+        <v>0.2738447189331055</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>124.632275985763</v>
+        <v>122.29647979109</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003499731762146152</v>
+        <v>0.003522423937944115</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00299516732686569</v>
+        <v>0.003171828982680271</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00299516732686569</v>
+        <v>0.002838111942227483</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00299516732686569</v>
+        <v>0.002838111942227483</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00299516732686569</v>
+        <v>0.002838111942227483</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002758869764583878</v>
+        <v>0.002757164521265021</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002758869764583878</v>
+        <v>0.002742421086112757</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002746784978126316</v>
+        <v>0.002575507828547649</v>
       </c>
       <c r="N11" t="n">
-        <v>0.002737754334204446</v>
+        <v>0.002575507828547649</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002699521767704408</v>
+        <v>0.002575507828547649</v>
       </c>
       <c r="P11" t="n">
-        <v>0.002699521767704408</v>
+        <v>0.002575507828547649</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.002671786123923417</v>
+        <v>0.002556501891866888</v>
       </c>
       <c r="R11" t="n">
-        <v>0.002656677203864892</v>
+        <v>0.002545969992047033</v>
       </c>
       <c r="S11" t="n">
-        <v>0.002561494454026476</v>
+        <v>0.002430994001781009</v>
       </c>
       <c r="T11" t="n">
-        <v>0.002554894318791039</v>
+        <v>0.002430994001781009</v>
       </c>
       <c r="U11" t="n">
-        <v>0.002474858425299621</v>
+        <v>0.002430994001781009</v>
       </c>
       <c r="V11" t="n">
-        <v>0.002455411285406198</v>
+        <v>0.002430994001781009</v>
       </c>
       <c r="W11" t="n">
-        <v>0.002455411285406198</v>
+        <v>0.002418129053648262</v>
       </c>
       <c r="X11" t="n">
-        <v>0.002455411285406198</v>
+        <v>0.002392101169221136</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.002429479064049961</v>
+        <v>0.002383946974485184</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr25_07_simulated/details.xlsx
+++ b/result/gr25_07_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2159323692321777</v>
+        <v>0.3859937191009521</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>116.7257070795258</v>
+        <v>166.7008502018489</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003403769951593227</v>
+        <v>0.005695122577285056</v>
       </c>
       <c r="G2" t="n">
-        <v>0.003403769951593227</v>
+        <v>0.004889840092523848</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002717440152790865</v>
+        <v>0.004487606760621414</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002717440152790865</v>
+        <v>0.00440117539087203</v>
       </c>
       <c r="J2" t="n">
-        <v>0.002717440152790865</v>
+        <v>0.004137959625192721</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002717440152790865</v>
+        <v>0.004015817776864572</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002652220947650199</v>
+        <v>0.003850441125197786</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002416901744621881</v>
+        <v>0.003683872805420258</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002394072392101993</v>
+        <v>0.003683872805420258</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002394072392101993</v>
+        <v>0.003683265085562939</v>
       </c>
       <c r="P2" t="n">
-        <v>0.002394072392101993</v>
+        <v>0.00360966234782559</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.002394072392101993</v>
+        <v>0.00351014634416858</v>
       </c>
       <c r="R2" t="n">
-        <v>0.002367892145530188</v>
+        <v>0.003493996494529795</v>
       </c>
       <c r="S2" t="n">
-        <v>0.002367892145530188</v>
+        <v>0.003448206863847684</v>
       </c>
       <c r="T2" t="n">
-        <v>0.002326878983193323</v>
+        <v>0.003346620104944876</v>
       </c>
       <c r="U2" t="n">
-        <v>0.002317315338941076</v>
+        <v>0.003331217051239995</v>
       </c>
       <c r="V2" t="n">
-        <v>0.002315901694191443</v>
+        <v>0.003315106628683085</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0023042798363505</v>
+        <v>0.003258553129899101</v>
       </c>
       <c r="X2" t="n">
-        <v>0.002294312593934464</v>
+        <v>0.003258553129899101</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.002275354913830912</v>
+        <v>0.003249529243700757</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2181625366210938</v>
+        <v>0.4240038394927979</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>116.8324859888871</v>
+        <v>168.4844816457371</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003400105573240949</v>
+        <v>0.005547066448613553</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003124351940380178</v>
+        <v>0.004815790443408508</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002808730397142713</v>
+        <v>0.004359210186529429</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002808730397142713</v>
+        <v>0.004044440135451783</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002808730397142713</v>
+        <v>0.003930571162451782</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002808730397142713</v>
+        <v>0.003827015977974235</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002808730397142713</v>
+        <v>0.003827015977974235</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002808730397142713</v>
+        <v>0.00380315303388296</v>
       </c>
       <c r="N3" t="n">
-        <v>0.002563003279799241</v>
+        <v>0.00380315303388296</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002539884647674264</v>
+        <v>0.003586118906002835</v>
       </c>
       <c r="P3" t="n">
-        <v>0.002539884647674264</v>
+        <v>0.003586118906002835</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.002536549760987125</v>
+        <v>0.003514412508183452</v>
       </c>
       <c r="R3" t="n">
-        <v>0.002433149990425824</v>
+        <v>0.003514412508183452</v>
       </c>
       <c r="S3" t="n">
-        <v>0.002391001170361593</v>
+        <v>0.003377760313186951</v>
       </c>
       <c r="T3" t="n">
-        <v>0.002355483154031241</v>
+        <v>0.003373852811136243</v>
       </c>
       <c r="U3" t="n">
-        <v>0.002299806719234361</v>
+        <v>0.003366210280398758</v>
       </c>
       <c r="V3" t="n">
-        <v>0.002286380550403617</v>
+        <v>0.00335320082596479</v>
       </c>
       <c r="W3" t="n">
-        <v>0.002286380550403617</v>
+        <v>0.003330886865575474</v>
       </c>
       <c r="X3" t="n">
-        <v>0.002286380550403617</v>
+        <v>0.003297363480766175</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.00227743637405238</v>
+        <v>0.003284297887831132</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.187507152557373</v>
+        <v>0.3389937877655029</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>127.1094564371542</v>
+        <v>172.9706161829999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003301287609747925</v>
+        <v>0.005642025233686275</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002939996241491163</v>
+        <v>0.004697614393623904</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002831265394267857</v>
+        <v>0.004222517796814512</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002831265394267857</v>
+        <v>0.004207422172915288</v>
       </c>
       <c r="J4" t="n">
-        <v>0.002831265394267857</v>
+        <v>0.003942887034631921</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002831265394267857</v>
+        <v>0.003942887034631921</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002831265394267857</v>
+        <v>0.003942887034631921</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002753111770238617</v>
+        <v>0.003795615851558623</v>
       </c>
       <c r="N4" t="n">
-        <v>0.002753111770238617</v>
+        <v>0.003795615851558623</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002596065274188398</v>
+        <v>0.003752079240196846</v>
       </c>
       <c r="P4" t="n">
-        <v>0.002596065274188398</v>
+        <v>0.003665740883259158</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.002596065274188398</v>
+        <v>0.003632893779542026</v>
       </c>
       <c r="R4" t="n">
-        <v>0.002596065274188398</v>
+        <v>0.003632893779542026</v>
       </c>
       <c r="S4" t="n">
-        <v>0.002596065274188398</v>
+        <v>0.003564690947618674</v>
       </c>
       <c r="T4" t="n">
-        <v>0.002596065274188398</v>
+        <v>0.003493115820322583</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002552064526612757</v>
+        <v>0.00344813076534484</v>
       </c>
       <c r="V4" t="n">
-        <v>0.002552064526612757</v>
+        <v>0.003414444108895115</v>
       </c>
       <c r="W4" t="n">
-        <v>0.00251247124298552</v>
+        <v>0.003414444108895115</v>
       </c>
       <c r="X4" t="n">
-        <v>0.002477767182010803</v>
+        <v>0.003388558051688076</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.002477767182010803</v>
+        <v>0.003371746904152045</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.253443717956543</v>
+        <v>0.3330380916595459</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>122.8535501446277</v>
+        <v>164.144334356024</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003522423937944115</v>
+        <v>0.005679871177659367</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00284824391404815</v>
+        <v>0.004647144724443379</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00284824391404815</v>
+        <v>0.004350897813186371</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00284824391404815</v>
+        <v>0.004295348244944137</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00283408032370466</v>
+        <v>0.004060491610429554</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002833473895416832</v>
+        <v>0.003849562872211274</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002650296359011921</v>
+        <v>0.003837585557495068</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002650296359011921</v>
+        <v>0.003755720966883497</v>
       </c>
       <c r="N5" t="n">
-        <v>0.002650296359011921</v>
+        <v>0.003713554925785292</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002465197328437512</v>
+        <v>0.003677229587532313</v>
       </c>
       <c r="P5" t="n">
-        <v>0.002465197328437512</v>
+        <v>0.00349717933042899</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.002465197328437512</v>
+        <v>0.003409881610060627</v>
       </c>
       <c r="R5" t="n">
-        <v>0.002465197328437512</v>
+        <v>0.003398182646672929</v>
       </c>
       <c r="S5" t="n">
-        <v>0.002465197328437512</v>
+        <v>0.003398182646672929</v>
       </c>
       <c r="T5" t="n">
-        <v>0.002465197328437512</v>
+        <v>0.003354594513393376</v>
       </c>
       <c r="U5" t="n">
-        <v>0.002465197328437512</v>
+        <v>0.0033336010553651</v>
       </c>
       <c r="V5" t="n">
-        <v>0.002465197328437512</v>
+        <v>0.003282845760687374</v>
       </c>
       <c r="W5" t="n">
-        <v>0.002407104814015487</v>
+        <v>0.003237313432479307</v>
       </c>
       <c r="X5" t="n">
-        <v>0.002407104814015487</v>
+        <v>0.00319969462682308</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.002394806045704242</v>
+        <v>0.00319969462682308</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3339650630950928</v>
+        <v>0.3959712982177734</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>121.7811056707287</v>
+        <v>169.453223336699</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00335144582154993</v>
+        <v>0.005643394092958738</v>
       </c>
       <c r="G6" t="n">
-        <v>0.003095131316536265</v>
+        <v>0.004622255019624994</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003095131316536265</v>
+        <v>0.004316892915374845</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002994597531247123</v>
+        <v>0.004241624078074937</v>
       </c>
       <c r="J6" t="n">
-        <v>0.002841638606137122</v>
+        <v>0.003883221527374979</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002841638606137122</v>
+        <v>0.003883221527374979</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002643742622574181</v>
+        <v>0.003746426981202571</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002643742622574181</v>
+        <v>0.00364105728197811</v>
       </c>
       <c r="N6" t="n">
-        <v>0.002643742622574181</v>
+        <v>0.003612257140037286</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002643742622574181</v>
+        <v>0.003557360060473909</v>
       </c>
       <c r="P6" t="n">
-        <v>0.002626676172517284</v>
+        <v>0.003522268380618743</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.002527187489995519</v>
+        <v>0.003498995550691783</v>
       </c>
       <c r="R6" t="n">
-        <v>0.002527187489995519</v>
+        <v>0.003498995550691783</v>
       </c>
       <c r="S6" t="n">
-        <v>0.002527187489995519</v>
+        <v>0.003447557648242333</v>
       </c>
       <c r="T6" t="n">
-        <v>0.002496954951870062</v>
+        <v>0.003393724237416001</v>
       </c>
       <c r="U6" t="n">
-        <v>0.00241620036380106</v>
+        <v>0.003360912242698961</v>
       </c>
       <c r="V6" t="n">
-        <v>0.002403964811074245</v>
+        <v>0.003331715421806725</v>
       </c>
       <c r="W6" t="n">
-        <v>0.002403964811074245</v>
+        <v>0.003317364178354565</v>
       </c>
       <c r="X6" t="n">
-        <v>0.002394952530739048</v>
+        <v>0.00330318174145612</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.002373900695335842</v>
+        <v>0.00330318174145612</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3253564834594727</v>
+        <v>0.3299975395202637</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>116.9860913417488</v>
+        <v>171.1355819736091</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003420623059458673</v>
+        <v>0.005387905113368413</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002960281829183094</v>
+        <v>0.004500859285083696</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002960281829183094</v>
+        <v>0.004332660443315584</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002891106893836556</v>
+        <v>0.004114736593981621</v>
       </c>
       <c r="J7" t="n">
-        <v>0.002739501626383855</v>
+        <v>0.004114736593981621</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002635084850179494</v>
+        <v>0.003959596441489703</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002635084850179494</v>
+        <v>0.003867890377220679</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002635084850179494</v>
+        <v>0.003840430743196965</v>
       </c>
       <c r="N7" t="n">
-        <v>0.00258919448397924</v>
+        <v>0.003723555608021183</v>
       </c>
       <c r="O7" t="n">
-        <v>0.00258919448397924</v>
+        <v>0.003592625512288332</v>
       </c>
       <c r="P7" t="n">
-        <v>0.002458844329240025</v>
+        <v>0.003561733560511189</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.002458844329240025</v>
+        <v>0.003552385442953093</v>
       </c>
       <c r="R7" t="n">
-        <v>0.002417267183923206</v>
+        <v>0.003529394580070009</v>
       </c>
       <c r="S7" t="n">
-        <v>0.002417267183923206</v>
+        <v>0.003529394580070009</v>
       </c>
       <c r="T7" t="n">
-        <v>0.002370940501961818</v>
+        <v>0.003417676049170355</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002370940501961818</v>
+        <v>0.003417676049170355</v>
       </c>
       <c r="V7" t="n">
-        <v>0.002334372705954486</v>
+        <v>0.003388864710747641</v>
       </c>
       <c r="W7" t="n">
-        <v>0.002334372705954486</v>
+        <v>0.003353699098812749</v>
       </c>
       <c r="X7" t="n">
-        <v>0.002309911127221282</v>
+        <v>0.00334191513817284</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.002280430630443445</v>
+        <v>0.003335976256795498</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2296862602233887</v>
+        <v>0.4490087032318115</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>118.1248554165995</v>
+        <v>170.0916393539883</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003383280333885364</v>
+        <v>0.005695122577285056</v>
       </c>
       <c r="G8" t="n">
-        <v>0.003050988193930496</v>
+        <v>0.004830976227410687</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002695292200116728</v>
+        <v>0.004381125642746454</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002695292200116728</v>
+        <v>0.004105635070414723</v>
       </c>
       <c r="J8" t="n">
-        <v>0.002695292200116728</v>
+        <v>0.004091818112775553</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002695292200116728</v>
+        <v>0.003874774837468864</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002571740267029343</v>
+        <v>0.003785155475214207</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002571740267029343</v>
+        <v>0.003785155475214207</v>
       </c>
       <c r="N8" t="n">
-        <v>0.002565953775809897</v>
+        <v>0.003662268242007509</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002565953775809897</v>
+        <v>0.003662268242007509</v>
       </c>
       <c r="P8" t="n">
-        <v>0.002496029561069249</v>
+        <v>0.003651657548090693</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.002496029561069249</v>
+        <v>0.003558577899002557</v>
       </c>
       <c r="R8" t="n">
-        <v>0.002410316585637506</v>
+        <v>0.00355299168544906</v>
       </c>
       <c r="S8" t="n">
-        <v>0.002410316585637506</v>
+        <v>0.003492726961722991</v>
       </c>
       <c r="T8" t="n">
-        <v>0.002395182235641097</v>
+        <v>0.003418610263837564</v>
       </c>
       <c r="U8" t="n">
-        <v>0.002358396293455417</v>
+        <v>0.003394464542446808</v>
       </c>
       <c r="V8" t="n">
-        <v>0.002345746883884221</v>
+        <v>0.003358325462315661</v>
       </c>
       <c r="W8" t="n">
-        <v>0.002307812219402272</v>
+        <v>0.003330151004204018</v>
       </c>
       <c r="X8" t="n">
-        <v>0.002307074446373617</v>
+        <v>0.003327475252368301</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.002302628760557495</v>
+        <v>0.003315626498128426</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2472198009490967</v>
+        <v>0.4629929065704346</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>124.5414572782702</v>
+        <v>172.2880020228422</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003521271639873229</v>
+        <v>0.005695122577285056</v>
       </c>
       <c r="G9" t="n">
-        <v>0.003161100990172108</v>
+        <v>0.004942781660371025</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00301289634147385</v>
+        <v>0.004421185863639588</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00301289634147385</v>
+        <v>0.004310221364566313</v>
       </c>
       <c r="J9" t="n">
-        <v>0.00301289634147385</v>
+        <v>0.004098535484569515</v>
       </c>
       <c r="K9" t="n">
-        <v>0.002870590622596173</v>
+        <v>0.004098535484569515</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002870590622596173</v>
+        <v>0.003824420124755134</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002870590622596173</v>
+        <v>0.003794128503775557</v>
       </c>
       <c r="N9" t="n">
-        <v>0.002870590622596173</v>
+        <v>0.003794128503775557</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002685979719631523</v>
+        <v>0.003625737247789144</v>
       </c>
       <c r="P9" t="n">
-        <v>0.002685979719631523</v>
+        <v>0.003594895334227209</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.002685979719631523</v>
+        <v>0.003508713540794696</v>
       </c>
       <c r="R9" t="n">
-        <v>0.002598742843779938</v>
+        <v>0.003508713540794696</v>
       </c>
       <c r="S9" t="n">
-        <v>0.002575741926290457</v>
+        <v>0.003507537585664125</v>
       </c>
       <c r="T9" t="n">
-        <v>0.002540515389460481</v>
+        <v>0.003475111910277325</v>
       </c>
       <c r="U9" t="n">
-        <v>0.002540515389460481</v>
+        <v>0.003404520808540894</v>
       </c>
       <c r="V9" t="n">
-        <v>0.002518737014139496</v>
+        <v>0.003404520808540894</v>
       </c>
       <c r="W9" t="n">
-        <v>0.002457657693245784</v>
+        <v>0.003395322483326689</v>
       </c>
       <c r="X9" t="n">
-        <v>0.002427708718874662</v>
+        <v>0.003368031084317135</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.002427708718874662</v>
+        <v>0.003358440585240588</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1927549839019775</v>
+        <v>0.4579970836639404</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>116.8764947291183</v>
+        <v>165.5295241311142</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003454616380507159</v>
+        <v>0.005695122577285056</v>
       </c>
       <c r="G10" t="n">
-        <v>0.002981128491030768</v>
+        <v>0.00479843212934127</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002616598422188515</v>
+        <v>0.004659000095937505</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002616598422188515</v>
+        <v>0.004216417665214705</v>
       </c>
       <c r="J10" t="n">
-        <v>0.002616598422188515</v>
+        <v>0.00387386193980597</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002616598422188515</v>
+        <v>0.00387386193980597</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002616598422188515</v>
+        <v>0.003839103593039638</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002616598422188515</v>
+        <v>0.00364647870247139</v>
       </c>
       <c r="N10" t="n">
-        <v>0.002616598422188515</v>
+        <v>0.003424646009772371</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002540017864780841</v>
+        <v>0.003424646009772371</v>
       </c>
       <c r="P10" t="n">
-        <v>0.002540017864780841</v>
+        <v>0.003424646009772371</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.002540017864780841</v>
+        <v>0.003424646009772371</v>
       </c>
       <c r="R10" t="n">
-        <v>0.002506209792586036</v>
+        <v>0.003411907271017616</v>
       </c>
       <c r="S10" t="n">
-        <v>0.002404686803845011</v>
+        <v>0.003373152794837272</v>
       </c>
       <c r="T10" t="n">
-        <v>0.002403499027412209</v>
+        <v>0.003360712189673842</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002389121389009779</v>
+        <v>0.00325971926022195</v>
       </c>
       <c r="V10" t="n">
-        <v>0.002361236115734019</v>
+        <v>0.00325971926022195</v>
       </c>
       <c r="W10" t="n">
-        <v>0.002299954768663382</v>
+        <v>0.00325971926022195</v>
       </c>
       <c r="X10" t="n">
-        <v>0.002284529951669286</v>
+        <v>0.003255445824384349</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.002278294244232326</v>
+        <v>0.003226696376824837</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2738447189331055</v>
+        <v>0.478001594543457</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>122.29647979109</v>
+        <v>168.1139107697763</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003522423937944115</v>
+        <v>0.005695122577285056</v>
       </c>
       <c r="G11" t="n">
-        <v>0.003171828982680271</v>
+        <v>0.004900069624440375</v>
       </c>
       <c r="H11" t="n">
-        <v>0.002838111942227483</v>
+        <v>0.004631824322849579</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002838111942227483</v>
+        <v>0.00437560012312078</v>
       </c>
       <c r="J11" t="n">
-        <v>0.002838111942227483</v>
+        <v>0.004136599001335569</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002757164521265021</v>
+        <v>0.004124312046736903</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002742421086112757</v>
+        <v>0.003728057260053844</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002575507828547649</v>
+        <v>0.003700556898193613</v>
       </c>
       <c r="N11" t="n">
-        <v>0.002575507828547649</v>
+        <v>0.003700556898193613</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002575507828547649</v>
+        <v>0.003552893236305676</v>
       </c>
       <c r="P11" t="n">
-        <v>0.002575507828547649</v>
+        <v>0.003552893236305676</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.002556501891866888</v>
+        <v>0.003552893236305676</v>
       </c>
       <c r="R11" t="n">
-        <v>0.002545969992047033</v>
+        <v>0.00341246171402593</v>
       </c>
       <c r="S11" t="n">
-        <v>0.002430994001781009</v>
+        <v>0.00341246171402593</v>
       </c>
       <c r="T11" t="n">
-        <v>0.002430994001781009</v>
+        <v>0.00340877921095578</v>
       </c>
       <c r="U11" t="n">
-        <v>0.002430994001781009</v>
+        <v>0.003370549890403222</v>
       </c>
       <c r="V11" t="n">
-        <v>0.002430994001781009</v>
+        <v>0.003298251570178894</v>
       </c>
       <c r="W11" t="n">
-        <v>0.002418129053648262</v>
+        <v>0.003298251570178894</v>
       </c>
       <c r="X11" t="n">
-        <v>0.002392101169221136</v>
+        <v>0.003286693239026301</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.002383946974485184</v>
+        <v>0.003277074284011234</v>
       </c>
     </row>
   </sheetData>
